--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979063.650294334</v>
+        <v>976806.6283852513</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>305.6500848629104</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>149.3098822773978</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>55.5986624366145</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.790440613649649</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299512</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>180.2484107694632</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>193.7457410905287</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.96985915739647</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>106.2080141416421</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>57.02146927219721</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>216.7787438998088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.96519333195891</v>
       </c>
       <c r="W19" t="n">
-        <v>185.2816515141572</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6898441249712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840172</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>59.77087865905977</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="E28" t="n">
-        <v>57.02146927219756</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.56887637424905</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>32.83323659136535</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.6898441249712</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37.38100496017453</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>91.4896202274963</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>115.8712462820736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164192</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
         <v>285.1555829172075</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572793</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575761</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.806495672433</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1326.843978732021</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1326.843978732021</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>941.0557261337767</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>530.0698213441692</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>516.1464172827601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.806495672433</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>204.7610447268269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>204.7610447268269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>204.7610447268269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.712364606781</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.749847666369</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.749847666369</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1001.749847666369</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>590.7639428767613</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,19 +4562,19 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670902</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117851</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117851</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>737.541684387221</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,22 +5045,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2209.609207880054</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.361480106701</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089898</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.4156786811474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.554715057173</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.137545020212</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>1078.856722654917</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.0641435113871</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277731</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176198</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366029</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>1770.231306037953</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,16 +5358,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.336921276364</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="C16" t="n">
-        <v>854.4007383484567</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361209</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="E16" t="n">
-        <v>556.3710053537278</v>
+        <v>300.0484256555949</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558174</v>
+        <v>153.1584781576845</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.746393431758</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>1425.777965250133</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.777965250133</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.985386106603</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N17" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>725.3071882816348</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C19" t="n">
-        <v>556.371005353728</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,10 +5692,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
         <v>1764.65758193153</v>
@@ -5704,19 +5704,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.737783153422</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.748232255405</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.9556531118745</v>
+        <v>414.613856788637</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2949.638265046256</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N20" t="n">
-        <v>3496.417082105038</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5820,37 +5820,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423047</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423047</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9043113423047</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>260.9043113423047</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,19 +5923,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5944,16 +5944,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.15366264131</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3515.905934867957</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>4018.878405747294</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4413.652772104471</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4661.939133860154</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>470.528443479727</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>470.528443479727</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>470.528443479727</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>470.528443479727</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>323.6384959818166</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>155.9356593565356</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.959038351514</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X25" t="n">
-        <v>872.9694874534969</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y25" t="n">
-        <v>652.1769083099667</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6236,40 +6236,40 @@
         <v>2183.715908442899</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300.0484256555952</v>
+        <v>210.217968413123</v>
       </c>
       <c r="C28" t="n">
-        <v>300.0484256555952</v>
+        <v>210.217968413123</v>
       </c>
       <c r="D28" t="n">
-        <v>300.0484256555952</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,10 +6388,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208131</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838525</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X28" t="n">
-        <v>481.696890485835</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.696890485835</v>
+        <v>391.8664332433627</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>3329.011433084685</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089896</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.8664332433625</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8664332433625</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6634,16 +6634,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413798</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433625</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.8664332433625</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,22 +6704,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1404.507041060941</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.057343890769</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N32" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>301.0224619425389</v>
+        <v>260.9043113423047</v>
       </c>
       <c r="C34" t="n">
-        <v>301.0224619425389</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>301.0224619425389</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143261</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>703.4635059163088</v>
+        <v>481.6968904858348</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.6709267727787</v>
+        <v>260.9043113423047</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6938,25 +6938,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O35" t="n">
-        <v>3819.938960973982</v>
+        <v>3499.035002528529</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4212.390089975475</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>507.47543520234</v>
+        <v>187.9747922539458</v>
       </c>
       <c r="C37" t="n">
-        <v>507.47543520234</v>
+        <v>187.9747922539458</v>
       </c>
       <c r="D37" t="n">
-        <v>358.4257203237471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>358.4257203237471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>212.6026973595797</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>212.6026973595797</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,7 +7093,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
         <v>346.7622353152491</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988874</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.673065648261</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.055501976117</v>
+        <v>922.9733187312254</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.705256472899</v>
+        <v>634.6230732280076</v>
       </c>
       <c r="X37" t="n">
-        <v>907.7826301086243</v>
+        <v>407.7004468637331</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.0569754988369</v>
+        <v>187.9747922539458</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1518.899775139038</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430892</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160444</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>913.1101661838561</v>
+        <v>741.1020862043849</v>
       </c>
       <c r="L41" t="n">
-        <v>1364.144379432265</v>
+        <v>1605.62090185774</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.67628410419</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7561,19 +7561,19 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2209.609207880054</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N44" t="n">
-        <v>3189.361480106701</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
         <v>4405.689038432984</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,49 +7728,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>1.017475755656733</v>
       </c>
       <c r="M11" t="n">
-        <v>26.15484791631889</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0478149561015</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>400.5976869789382</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>60.0189488469199</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>216.9877583263358</v>
       </c>
       <c r="O20" t="n">
-        <v>77.3579543087709</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>103.7862464855134</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>57.67224444723641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>148.4180109385408</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>135.6385654278955</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>276.6006559868303</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>34.13957882094019</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>14.45386895940641</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>76.45227440777364</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>46.30618790178829</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>195.2514630883921</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>285.0508825989992</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>104.3976710547475</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>128.7323010770068</v>
+        <v>124.0833809162814</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>26.15484791631889</v>
+        <v>136.2499899971297</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>119.501641247395</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>109.004338986831</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.74425443678217</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>152.1724499918691</v>
       </c>
       <c r="W19" t="n">
-        <v>101.2413468224338</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696673</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>2.335964134057072</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035356</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>84.98413625526101</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313102</v>
       </c>
       <c r="E28" t="n">
-        <v>89.41249337437161</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>97.04659664396331</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>253.6897617452257</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>109.0529576863946</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
         <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.06959750231065</v>
       </c>
       <c r="E37" t="n">
         <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
         <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>27.82751334384179</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143269</v>
+        <v>95.29616512143268</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164193</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990205.956262619</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>990205.9562626189</v>
+        <v>990205.956262619</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>990205.956262619</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>990205.956262619</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>990205.9562626188</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>990946.3062123656</v>
+        <v>990946.3062123657</v>
       </c>
     </row>
     <row r="14">
@@ -26314,31 +26314,31 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="F2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="F2" t="n">
-        <v>416935.8762313326</v>
-      </c>
       <c r="G2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
+        <v>416935.8762313325</v>
+      </c>
+      <c r="J2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>416935.8762313325</v>
-      </c>
-      <c r="K2" t="n">
-        <v>416935.8762313324</v>
       </c>
       <c r="L2" t="n">
         <v>416935.8762313325</v>
@@ -26347,13 +26347,13 @@
         <v>417253.1690669385</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787485</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787489</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>431046.9291787486</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811452</v>
+        <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26479,19 +26479,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26522,46 +26522,46 @@
         <v>-425128.7149563332</v>
       </c>
       <c r="C6" t="n">
-        <v>164839.1642582112</v>
+        <v>164839.1642582114</v>
       </c>
       <c r="D6" t="n">
-        <v>164839.1642582111</v>
+        <v>164839.1642582114</v>
       </c>
       <c r="E6" t="n">
-        <v>-424973.5483349779</v>
+        <v>-425040.7438252038</v>
       </c>
       <c r="F6" t="n">
-        <v>302403.8656584287</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="G6" t="n">
-        <v>302403.8656584293</v>
+        <v>302336.670168203</v>
       </c>
       <c r="H6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="I6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="J6" t="n">
-        <v>125980.6464658359</v>
+        <v>125913.4509756102</v>
       </c>
       <c r="K6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="L6" t="n">
-        <v>302403.8656584289</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="M6" t="n">
-        <v>171797.4804696002</v>
+        <v>171731.7958976393</v>
       </c>
       <c r="N6" t="n">
-        <v>260373.4998030881</v>
+        <v>260373.4998030877</v>
       </c>
       <c r="O6" t="n">
-        <v>297108.6048672376</v>
+        <v>297108.6048672378</v>
       </c>
       <c r="P6" t="n">
-        <v>297108.6048672376</v>
+        <v>297108.6048672375</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="N2" t="n">
         <v>45.91888133018715</v>
@@ -26969,7 +26969,7 @@
         <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.27268790144672</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>6.861006564397371</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>358.1855075841805</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>28.06971808504606</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>35.40951857488735</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>201.6819593027986</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.4921975655249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>241.3120150845813</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405397</v>
+        <v>1.056255288405403</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>456.6075901479889</v>
       </c>
       <c r="M11" t="n">
-        <v>565.0759637465457</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407865</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3496503690133</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>856.1878013712703</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>568.071949735139</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>769.289593739247</v>
       </c>
       <c r="O20" t="n">
-        <v>585.41095519699</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>611.8392473737325</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>117.2854429894612</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>700.7198463514522</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>534.4005516472673</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>732.1907703791625</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>542.1925797091593</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>470.0439833517386</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>615.3733902380004</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>445.0681741211602</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>446.0457678921116</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147162</v>
+        <v>46.63467190147163</v>
       </c>
       <c r="K37" t="n">
         <v>207.103914832725</v>
@@ -37482,7 +37482,7 @@
         <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629905</v>
+        <v>79.45049382629907</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>740.6409969913313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>503.1596572741194</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>465.9235876324073</v>
+        <v>461.2746674716819</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,16 +38023,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>565.0759637465457</v>
+        <v>675.1711058273564</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
